--- a/FA0_IMPORT_A02SNQQ.xlsx
+++ b/FA0_IMPORT_A02SNQQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\3. -A02SNQQ (F2)- ALABAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F0F56-EA1F-49E6-A6A0-3BBBF8D08D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2A855-7002-4B20-ACDB-09B17F2CFF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{760006C8-9150-45CF-9768-E6FB0EE17EFC}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="361">
   <si>
     <t>PRIMARY_TERM_ADDRESS</t>
   </si>
@@ -1113,9 +1113,6 @@
   </si>
   <si>
     <t>OPP 7615-1 HIGHWAY 22</t>
-  </si>
-  <si>
-    <t>F 122-1 LEGACY OAKS</t>
   </si>
   <si>
     <t>F 122-1 LEGACY OAKS DR</t>
@@ -1987,8 +1984,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="212" spans="1:2" ht="15">
       <c r="A212" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>299</v>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="213" spans="1:2" ht="15">
       <c r="A213" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>294</v>
@@ -3742,7 +3739,7 @@
         <v>73</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="8" customFormat="1" ht="15">
@@ -3750,7 +3747,7 @@
         <v>74</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15">
